--- a/Cache_framewrk_Compare.xlsx
+++ b/Cache_framewrk_Compare.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Redis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -75,12 +76,6 @@
     <t>Distributed Topic</t>
   </si>
   <si>
-    <t>publish/subscribe messaging</t>
-  </si>
-  <si>
-    <t>Fture</t>
-  </si>
-  <si>
     <t>Data Grid</t>
   </si>
   <si>
@@ -112,13 +107,306 @@
   </si>
   <si>
     <t xml:space="preserve">Distributed, In-Memory, Scalable Large scale Compute / Transaction </t>
+  </si>
+  <si>
+    <t>Appropriate Usecase</t>
+  </si>
+  <si>
+    <t>Redis offers persistence</t>
+  </si>
+  <si>
+    <t>Redis provides a very easy, Full Page Cache (FPC), with disk persistence get best of it.</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(REmote DIctionary Server)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>In-memory</t>
+  </si>
+  <si>
+    <t>Key-value database</t>
+  </si>
+  <si>
+    <t>Resque use Redis as the backend for queueing background jobs.</t>
+  </si>
+  <si>
+    <t>Counters</t>
+  </si>
+  <si>
+    <t>pub/sub messaging</t>
+  </si>
+  <si>
+    <t>Atomic implementation of counters.</t>
+  </si>
+  <si>
+    <t>Atomic commands such as HINCRBY, allow for a simple and thread-safe counters.
+-- no need to read the data before incrementing
+-- no database schemas to update
+-- consistent among multiple application servers.</t>
+  </si>
+  <si>
+    <t>Written in ANSI C</t>
+  </si>
+  <si>
+    <t>High Availability</t>
+  </si>
+  <si>
+    <t>asynchronous, non-blocking, master/slave replication to ensure high availability of data.</t>
+  </si>
+  <si>
+    <t>data structure</t>
+  </si>
+  <si>
+    <t>data structures (lists, maps, sets, and sorted sets)
+-- five possible data types for values: strings, lists, sets, hashes, and sorted sets.
+-- data types are documented time-complexity (Big O notation).</t>
+  </si>
+  <si>
+    <t>Twitter  GitHub  Weibo  Pinterest  Snapchat  Craigslist  Digg  StackOverflow  Flickr</t>
+  </si>
+  <si>
+    <t>Disk Persistence</t>
+  </si>
+  <si>
+    <t>Data can be persisted to disk, but incorrect configuration could lead to data loss when Redis is shutdown improperly.</t>
+  </si>
+  <si>
+    <t>YES
+-- Redis’s ability to store and manipulate high-level data types. 
+--  Redis will support up to 1GB of data for a single entry. (max 512 MB key, 512 mb value)</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Redis stores data in the form of a key and a map
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Map&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String, String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; user = new HashMap&lt;&gt;();
+ user.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username", "john123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+ user.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"firstName", "John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// use Jedis client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+ jedis.hmset(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user:john123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, user);
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Data replication</t>
+  </si>
+  <si>
+    <t>Replication is the process of setting up master-slave cache nodes. The slave nodes always listen to the master node, which means that when the master node is updated, slaves will automatically be updated</t>
+  </si>
+  <si>
+    <t>COMPANIES USING</t>
+  </si>
+  <si>
+    <t>Redis can also update slaves asynchronously</t>
+  </si>
+  <si>
+    <t>Resilient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache service will be up-and-running, even if any of the slave nodes are down. </t>
+  </si>
+  <si>
+    <t>Client Language</t>
+  </si>
+  <si>
+    <t>Built Language</t>
+  </si>
+  <si>
+    <t>C, Ruby, Java, Javascript, Python</t>
+  </si>
+  <si>
+    <t>Mass insertion</t>
+  </si>
+  <si>
+    <t>load millions of pieces of data into the cache within a short period of time.</t>
+  </si>
+  <si>
+    <t>Client communication</t>
+  </si>
+  <si>
+    <t>Redis client communicates with its server using RESP (Redis Serialization Protocol)</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>commands can be executed as a queue instead of executing one at a time. Typically, commands after MULTI will be added to a queue and once EXEC is issued, all the commands saved in the queue will be executed at once.</t>
+  </si>
+  <si>
+    <t>open source</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large data sets often involve serialized data, which always requires more space to store. </t>
+  </si>
+  <si>
+    <t>Redis can store any aspect of the data natively, thus reducing serialization overhead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Processing </t>
+  </si>
+  <si>
+    <t>Redis is mostly single-threaded; scale horizontally (clustering)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Eviction </t>
+  </si>
+  <si>
+    <t>Fine-grained control over eviction;
+-- 6 eviction policies
+-- Lazy (only more space needed) and active eviction (proactively)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- simple; eacy work for developer;
+-- Fine-grained control over eviction; Lazy and Active; 6 different eviction policies;
+-- 
+-- atomic manipulation of data structures solves perform poorly with traditional relational databases.
+-- a superior alternative to the traditional memcached solution for caching.
+-- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +417,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,19 +468,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,175 +765,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>2</v>
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="87" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>